--- a/Sprint2_Backlog.xlsx
+++ b/Sprint2_Backlog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="72" windowWidth="16272" windowHeight="9276"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="16275" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>User story</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">As a visitor/User I should be able to search the portal library to find specific content. </t>
   </si>
   <si>
-    <t>Moaz / Omar</t>
-  </si>
-  <si>
     <t>ali mohamed</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>As MUN I should be checked if I'm admin or not so I can add/delete/edit merchandise</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ziad mostafa</t>
   </si>
   <si>
@@ -139,13 +133,25 @@
   </si>
   <si>
     <t>Kandil</t>
+  </si>
+  <si>
+    <t>As a visitor/User I should be able to search on the homepage of the hub to retrieve information about names of AWGs and event names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moaz </t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -364,7 +369,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,22 +544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="126.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="126.5703125" customWidth="1"/>
     <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -615,12 +619,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -635,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -643,44 +647,44 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>1.4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>1.5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -689,44 +693,44 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>1.6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>1.7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -735,32 +739,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -769,18 +773,18 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -789,70 +793,80 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>2.1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>28</v>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;12Team name:                
-Project:
-Module/Club:
-Scrum ID: 
-Scrum email:</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12Team name:                Project:Module/Club:Scrum ID: Scrum email:</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
